--- a/KINR6AV1.xlsx
+++ b/KINR6AV1.xlsx
@@ -17,25 +17,25 @@
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
+    <t>mardi</t>
+  </si>
+  <si>
+    <t>Anglais (KINR6AV1)</t>
+  </si>
+  <si>
+    <t>KINR6AV1</t>
+  </si>
+  <si>
+    <t>7:45</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>TYPE_AUTRE</t>
+  </si>
+  <si>
     <t>vendredi</t>
-  </si>
-  <si>
-    <t>Anglais (KINR6AV1)</t>
-  </si>
-  <si>
-    <t>KINR6AV1</t>
-  </si>
-  <si>
-    <t>7:45</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>TYPE_AUTRE</t>
-  </si>
-  <si>
-    <t>lundi</t>
   </si>
 </sst>
 </file>
@@ -98,7 +98,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>44932.0</v>
+        <v>46028.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -129,7 +129,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="1">
-        <v>44935.0</v>
+        <v>46031.0</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>7</v>
@@ -168,7 +168,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n" s="1">
-        <v>44953.0</v>
+        <v>46049.0</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>1</v>
@@ -199,7 +199,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n" s="1">
-        <v>44956.0</v>
+        <v>46052.0</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>7</v>
@@ -238,7 +238,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n" s="1">
-        <v>44960.0</v>
+        <v>46056.0</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>1</v>
@@ -277,7 +277,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n" s="1">
-        <v>44995.0</v>
+        <v>46091.0</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>1</v>
@@ -316,7 +316,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n" s="1">
-        <v>45002.0</v>
+        <v>46098.0</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>1</v>
@@ -355,7 +355,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n" s="1">
-        <v>45009.0</v>
+        <v>46105.0</v>
       </c>
       <c r="B21" t="s" s="0">
         <v>1</v>
@@ -394,7 +394,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n" s="1">
-        <v>45016.0</v>
+        <v>46112.0</v>
       </c>
       <c r="B24" t="s" s="0">
         <v>1</v>
@@ -433,7 +433,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n" s="1">
-        <v>45051.0</v>
+        <v>46147.0</v>
       </c>
       <c r="B27" t="s" s="0">
         <v>1</v>
@@ -472,7 +472,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n" s="1">
-        <v>45058.0</v>
+        <v>46154.0</v>
       </c>
       <c r="B30" t="s" s="0">
         <v>1</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n" s="1">
-        <v>45065.0</v>
+        <v>46161.0</v>
       </c>
       <c r="B33" t="s" s="0">
         <v>1</v>
